--- a/Python/dist.xlsx
+++ b/Python/dist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iacopo\Documents\EPFL\Microinf\Working_dir\Projet_MicroInfo20\mini_projet\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079BD57F-D7B0-4AD3-AB4B-26462635CA95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7703687B-45EE-4D29-B3AB-78DBFE4D6E98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="600" windowWidth="18330" windowHeight="14145" xr2:uid="{B3FEBACE-121C-45D3-B2FA-69E782385832}"/>
+    <workbookView xWindow="5610" yWindow="600" windowWidth="20160" windowHeight="14145" xr2:uid="{B3FEBACE-121C-45D3-B2FA-69E782385832}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11095073561130145"/>
+          <c:y val="5.8489190108246339E-2"/>
+          <c:w val="0.84943808152936584"/>
+          <c:h val="0.67688300864673401"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -178,10 +188,7 @@
                     <a:pPr>
                       <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
+                          <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:latin typeface="+mn-lt"/>
                         <a:ea typeface="+mn-ea"/>
@@ -189,14 +196,26 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                      <a:rPr lang="en-US" sz="2000" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t>y = 438.85x</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="2000" baseline="30000"/>
+                      <a:rPr lang="en-US" sz="2000" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t>-0.529</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="2000"/>
+                    <a:endParaRPr lang="en-US" sz="2000">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -215,10 +234,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -402,10 +418,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -413,14 +426,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-CH" sz="1400"/>
-                  <a:t>Valeur</a:t>
+                  <a:rPr lang="fr-CH" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Valeur du capteur</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="fr-CH" sz="1400" baseline="0"/>
-                  <a:t> du capteur</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-CH" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -439,10 +451,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -461,10 +470,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -475,12 +481,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -510,10 +513,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -521,7 +521,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-CH" sz="1400"/>
+                  <a:rPr lang="fr-CH" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Distance [mm]</a:t>
                 </a:r>
               </a:p>
@@ -542,10 +546,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -564,10 +565,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -578,12 +576,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -598,13 +593,56 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="sq">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7798570329231137"/>
+          <c:y val="6.6262012355846819E-2"/>
+          <c:w val="0.18472630316223987"/>
+          <c:h val="0.16850340149425944"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -621,12 +659,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1209,16 +1242,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1545,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC58BFE-B825-42C9-AEB0-DC2D708749DF}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,18 +1956,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1954,6 +1987,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B59F0EC-9CDA-4265-872B-769EC3CE07AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D3234B7-31DC-42CF-A437-EDF87538728D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1966,12 +2007,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B59F0EC-9CDA-4265-872B-769EC3CE07AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>